--- a/process.xlsx
+++ b/process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>总计</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>3-7</t>
+  </si>
+  <si>
+    <t>第9周</t>
   </si>
   <si>
     <t>第15周</t>
@@ -282,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -320,10 +323,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,22 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -357,18 +345,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,25 +370,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,7 +401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +410,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,8 +432,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +461,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,13 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +506,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,19 +584,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,37 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,91 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +667,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,21 +709,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -713,15 +719,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,11 +753,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,148 +772,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,9 +1261,9 @@
   <dimension ref="A1:K273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F185" sqref="F185"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1287,7 +1290,7 @@
       </c>
       <c r="K1" s="1">
         <f>140-SUM(G:G)/60</f>
-        <v>90.7230555555556</v>
+        <v>87.5641666666667</v>
       </c>
     </row>
     <row r="2" spans="5:7">
@@ -3679,7 +3682,7 @@
         <v>7</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" ref="G153:G177" si="8">E153+F153/60</f>
+        <f t="shared" ref="G153:G192" si="8">E153+F153/60</f>
         <v>6.11666666666667</v>
       </c>
     </row>
@@ -4072,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="G178" s="2">
-        <f>E178+F178/60</f>
+        <f t="shared" si="8"/>
         <v>22.15</v>
       </c>
     </row>
@@ -4087,7 +4090,7 @@
         <v>9</v>
       </c>
       <c r="G179" s="2">
-        <f>E179+F179/60</f>
+        <f t="shared" si="8"/>
         <v>5.15</v>
       </c>
     </row>
@@ -4102,7 +4105,7 @@
         <v>57</v>
       </c>
       <c r="G180" s="2">
-        <f>E180+F180/60</f>
+        <f t="shared" si="8"/>
         <v>21.95</v>
       </c>
     </row>
@@ -4117,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" ref="G181:G187" si="9">E181+F181/60</f>
+        <f t="shared" si="8"/>
         <v>16.1</v>
       </c>
     </row>
@@ -4132,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>14.1166666666667</v>
       </c>
     </row>
@@ -4147,7 +4150,7 @@
         <v>7</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>16.1166666666667</v>
       </c>
     </row>
@@ -4162,13 +4165,198 @@
         <v>6</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="2">
+        <v>23</v>
+      </c>
+      <c r="F185" s="2">
+        <v>29</v>
+      </c>
+      <c r="G185" s="2">
+        <f t="shared" si="8"/>
+        <v>23.4833333333333</v>
+      </c>
+    </row>
+    <row r="186" spans="4:7">
+      <c r="D186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="2">
+        <v>15</v>
+      </c>
+      <c r="F186" s="2">
+        <v>27</v>
+      </c>
+      <c r="G186" s="2">
+        <f t="shared" si="8"/>
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7">
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="2">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2">
+        <v>26</v>
+      </c>
+      <c r="G187" s="2">
+        <f t="shared" si="8"/>
+        <v>12.4333333333333</v>
+      </c>
+    </row>
+    <row r="188" spans="4:7">
+      <c r="D188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="2">
+        <v>18</v>
+      </c>
+      <c r="F188" s="2">
+        <v>52</v>
+      </c>
+      <c r="G188" s="2">
+        <f t="shared" si="8"/>
+        <v>18.8666666666667</v>
+      </c>
+    </row>
+    <row r="189" spans="4:7">
+      <c r="D189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="2">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2">
+        <v>34</v>
+      </c>
+      <c r="G189" s="2">
+        <f t="shared" si="8"/>
+        <v>12.5666666666667</v>
+      </c>
+    </row>
+    <row r="190" spans="4:7">
+      <c r="D190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="2">
+        <v>18</v>
+      </c>
+      <c r="F190" s="2">
+        <v>3</v>
+      </c>
+      <c r="G190" s="2">
+        <f t="shared" si="8"/>
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7">
+      <c r="C191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="2">
+        <v>15</v>
+      </c>
+      <c r="F191" s="2">
+        <v>29</v>
+      </c>
+      <c r="G191" s="2">
+        <f t="shared" si="8"/>
+        <v>15.4833333333333</v>
+      </c>
+    </row>
+    <row r="192" spans="4:7">
+      <c r="D192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="2">
+        <v>28</v>
+      </c>
+      <c r="F192" s="2">
+        <v>33</v>
+      </c>
+      <c r="G192" s="2">
+        <f t="shared" si="8"/>
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="193" spans="4:7">
+      <c r="D193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="2">
+        <v>16</v>
+      </c>
+      <c r="F193" s="2">
+        <v>37</v>
+      </c>
+      <c r="G193" s="2">
+        <f>E193+F193/60</f>
+        <v>16.6166666666667</v>
+      </c>
+    </row>
+    <row r="194" spans="4:7">
+      <c r="D194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" s="2">
+        <v>13</v>
+      </c>
+      <c r="F194" s="2">
+        <v>52</v>
+      </c>
+      <c r="G194" s="2">
+        <f>E194+F194/60</f>
+        <v>13.8666666666667</v>
+      </c>
+    </row>
+    <row r="195" spans="4:7">
+      <c r="D195" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="2">
+        <v>14</v>
+      </c>
+      <c r="F195" s="2">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2">
+        <f>E195+F195/60</f>
+        <v>14.1666666666667</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4">
+      <c r="C196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="2:7">
       <c r="B241" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -4183,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="G241" s="2">
-        <f t="shared" ref="G241:G265" si="10">E241+F241/60</f>
+        <f t="shared" ref="G241:G265" si="9">E241+F241/60</f>
         <v>9.06666666666667</v>
       </c>
     </row>
@@ -4198,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="G242" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.21666666666667</v>
       </c>
     </row>
@@ -4213,7 +4401,7 @@
         <v>59</v>
       </c>
       <c r="G243" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16.9833333333333</v>
       </c>
     </row>
@@ -4228,7 +4416,7 @@
         <v>40</v>
       </c>
       <c r="G244" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.66666666666667</v>
       </c>
     </row>
@@ -4243,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="G245" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.66666666666667</v>
       </c>
     </row>
@@ -4258,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="G246" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.5166666666667</v>
       </c>
     </row>
@@ -4273,13 +4461,13 @@
         <v>9</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.15</v>
       </c>
     </row>
     <row r="248" spans="4:7">
       <c r="D248" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E248" s="2">
         <v>24</v>
@@ -4288,13 +4476,13 @@
         <v>47</v>
       </c>
       <c r="G248" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24.7833333333333</v>
       </c>
     </row>
     <row r="249" spans="4:7">
       <c r="D249" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E249" s="2">
         <v>4</v>
@@ -4303,13 +4491,13 @@
         <v>55</v>
       </c>
       <c r="G249" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.91666666666667</v>
       </c>
     </row>
     <row r="250" spans="4:7">
       <c r="D250" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E250" s="2">
         <v>4</v>
@@ -4318,13 +4506,13 @@
         <v>38</v>
       </c>
       <c r="G250" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.63333333333333</v>
       </c>
     </row>
     <row r="251" spans="4:7">
       <c r="D251" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E251" s="2">
         <v>4</v>
@@ -4333,13 +4521,13 @@
         <v>32</v>
       </c>
       <c r="G251" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.53333333333333</v>
       </c>
     </row>
     <row r="252" spans="4:7">
       <c r="D252" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E252" s="2">
         <v>7</v>
@@ -4348,7 +4536,7 @@
         <v>19</v>
       </c>
       <c r="G252" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.31666666666667</v>
       </c>
     </row>
@@ -4366,7 +4554,7 @@
         <v>45</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20.75</v>
       </c>
     </row>
@@ -4381,7 +4569,7 @@
         <v>39</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20.65</v>
       </c>
     </row>
@@ -4396,7 +4584,7 @@
         <v>38</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15.6333333333333</v>
       </c>
     </row>
@@ -4411,7 +4599,7 @@
         <v>50</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>22.8333333333333</v>
       </c>
     </row>
@@ -4426,7 +4614,7 @@
         <v>49</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21.8166666666667</v>
       </c>
     </row>
@@ -4441,7 +4629,7 @@
         <v>35</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16.5833333333333</v>
       </c>
     </row>
@@ -4456,13 +4644,13 @@
         <v>11</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.18333333333333</v>
       </c>
     </row>
     <row r="260" spans="4:7">
       <c r="D260" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E260" s="2">
         <v>5</v>
@@ -4471,7 +4659,7 @@
         <v>44</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.73333333333333</v>
       </c>
     </row>
@@ -4489,7 +4677,7 @@
         <v>59</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>22.9833333333333</v>
       </c>
     </row>
@@ -4504,7 +4692,7 @@
         <v>17</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21.2833333333333</v>
       </c>
     </row>
@@ -4519,7 +4707,7 @@
         <v>29</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9.48333333333333</v>
       </c>
     </row>
@@ -4534,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17.7666666666667</v>
       </c>
     </row>
@@ -4549,7 +4737,7 @@
         <v>19</v>
       </c>
       <c r="G265" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17.3166666666667</v>
       </c>
     </row>
@@ -4567,7 +4755,7 @@
         <v>34</v>
       </c>
       <c r="G266" s="2">
-        <f t="shared" ref="G266:G273" si="11">E266+F266/60</f>
+        <f t="shared" ref="G266:G273" si="10">E266+F266/60</f>
         <v>13.5666666666667</v>
       </c>
     </row>
@@ -4582,7 +4770,7 @@
         <v>51</v>
       </c>
       <c r="G267" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.85</v>
       </c>
     </row>
@@ -4597,7 +4785,7 @@
         <v>57</v>
       </c>
       <c r="G268" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.95</v>
       </c>
     </row>
@@ -4612,7 +4800,7 @@
         <v>34</v>
       </c>
       <c r="G269" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>19.5666666666667</v>
       </c>
     </row>
@@ -4621,7 +4809,7 @@
         <v>42</v>
       </c>
       <c r="G270" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4630,7 +4818,7 @@
         <v>43</v>
       </c>
       <c r="G271" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4639,16 +4827,16 @@
         <v>44</v>
       </c>
       <c r="G272" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="4:7">
       <c r="D273" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G273" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
